--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +42,15 @@
   </si>
   <si>
     <t>dme722@gmail.com</t>
+  </si>
+  <si>
+    <t>Matt Busby</t>
+  </si>
+  <si>
+    <t>630-234-7606</t>
+  </si>
+  <si>
+    <t>matthew.busby@colorado.edu</t>
   </si>
 </sst>
 </file>
@@ -129,6 +143,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,17 +479,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,42 +511,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="18">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="18">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="18">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -532,6 +560,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Administration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +46,15 @@
   </si>
   <si>
     <t>matthew.busby@colorado.edu</t>
+  </si>
+  <si>
+    <t>Taylor Dean</t>
+  </si>
+  <si>
+    <t>919-302-3686</t>
+  </si>
+  <si>
+    <t>taylor.dean@colorado.edu</t>
   </si>
 </sst>
 </file>
@@ -479,17 +483,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -522,37 +526,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -561,6 +571,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CU Boulder\First Semester\Graduate Project\FlyNet\Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +42,15 @@
   </si>
   <si>
     <t>dme722@gmail.com</t>
+  </si>
+  <si>
+    <t>Prashant Ganesh</t>
+  </si>
+  <si>
+    <t>503-410-6922</t>
+  </si>
+  <si>
+    <t>prashant.ganesh92@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -129,6 +143,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -457,17 +479,17 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -489,42 +511,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="18">
+    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="18">
+    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="18">
+    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -532,6 +560,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -51,16 +50,22 @@
   </si>
   <si>
     <t>austin.m.anderson@colorado.edu</t>
+  </si>
+  <si>
+    <t>Tyler Clayton</t>
+  </si>
+  <si>
+    <t>303-818-2671</t>
+  </si>
+  <si>
+    <t>tyler.clayton@colorado.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -69,22 +74,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -99,7 +89,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -122,76 +112,48 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -250,31 +212,326 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.662962962963"/>
+    <col min="1" max="1" width="17.125"/>
+    <col min="2" max="2" width="18.5"/>
+    <col min="3" max="3" width="27"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -285,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -296,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -307,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -318,48 +575,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="dme722@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="prashant.ganesh92@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="austin.m.anderson@colorado.edu"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CU Boulder\First Semester\Graduate Project\FlyNet\Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -40,9 +45,6 @@
     <t>503-410-6922</t>
   </si>
   <si>
-    <t>prashant.ganesh92@gmail.com</t>
-  </si>
-  <si>
     <t>Austin Anderson</t>
   </si>
   <si>
@@ -59,6 +61,9 @@
   </si>
   <si>
     <t>tyler.clayton@colorado.edu</t>
+  </si>
+  <si>
+    <t>prashant.ganesh@colorado.edu</t>
   </si>
 </sst>
 </file>
@@ -139,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -147,6 +152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -226,6 +232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,18 +529,18 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.125"/>
+    <col min="1" max="1" width="17.08203125"/>
     <col min="2" max="2" width="18.5"/>
     <col min="3" max="3" width="27"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="4" max="1025" width="10.58203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -553,60 +562,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Administration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +64,15 @@
   </si>
   <si>
     <t>tyler.clayton@colorado.edu</t>
+  </si>
+  <si>
+    <t>Matt Busby</t>
+  </si>
+  <si>
+    <t>630-234-7606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matthew.busby@colorado.edu </t>
   </si>
 </sst>
 </file>
@@ -226,6 +240,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +537,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,9 +604,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -617,6 +640,7 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Administration/Contact Info.xlsx
+++ b/Administration/Contact Info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CU Boulder\First Semester\Graduate Project\FlyNet\Administration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FlyNet\Administration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>prashant.ganesh@colorado.edu</t>
+  </si>
+  <si>
+    <t>Matt Busby</t>
+  </si>
+  <si>
+    <t>630-234-7606</t>
+  </si>
+  <si>
+    <t>matthew.busby@colorado.edu</t>
   </si>
 </sst>
 </file>
@@ -529,18 +538,18 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08203125"/>
+    <col min="1" max="1" width="17.125"/>
     <col min="2" max="2" width="18.5"/>
     <col min="3" max="3" width="27"/>
-    <col min="4" max="1025" width="10.58203125"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -562,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -573,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -595,27 +604,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -626,6 +641,7 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
